--- a/z.ERP/trunk/z.ERP.Web/File/Template/租约列表导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/租约列表导出.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B3965-18E5-47B5-9F93-CCFFC2377A1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B97A9C-6DBA-4D45-B749-3B9917AC7DD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,23 +114,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=ContractList.REPORTER_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=ContractList.VERIFY_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=ContractList.VERIFY_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=ContractList.BRANCHID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractList.NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ContractList.DJRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ContractList.SHRQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -549,19 +551,19 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
